--- a/数据整理/stocks/其他/200016-20附息国债16.xlsx
+++ b/数据整理/stocks/其他/200016-20附息国债16.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3505</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/200016-20附息国债16.xlsx
+++ b/数据整理/stocks/其他/200016-20附息国债16.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3158,4 +3159,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/200016-20附息国债16.xlsx
+++ b/数据整理/stocks/其他/200016-20附息国债16.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3671,4 +3672,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/200016-20附息国债16.xlsx
+++ b/数据整理/stocks/其他/200016-20附息国债16.xlsx
@@ -3696,12 +3696,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/200016-20附息国债16.xlsx
+++ b/数据整理/stocks/其他/200016-20附息国债16.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,37 +465,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -505,36 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5158</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="3">
@@ -543,36 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008456</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0107</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.69</v>
       </c>
     </row>
     <row r="4">
@@ -581,36 +517,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009186</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘聚新三个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0104</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.81</v>
       </c>
     </row>
     <row r="5">
@@ -619,796 +533,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7118</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6061</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4041</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001901</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3035</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009606</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3034</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3033</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004301</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保稳信混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3030</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005317</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>万家瑞舜灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.75</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3030</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005177</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏睿磐泰利混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.34</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3029</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003938</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方荣尊混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2025</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160323</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2022</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1895</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0910</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009607</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005318</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家瑞舜灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>25.75</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005178</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华夏睿磐泰利混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.34</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009187</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>天弘聚新三个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004302</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国寿安保稳信混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003939</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方荣尊混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>24.90</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001902</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>前海开源沪港深隆鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>47.42</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.96</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009064</t>
+          <t>001201</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.99</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.4458</t>
+          <t>0.7197</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1511,17 +643,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009426</t>
+          <t>001727</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景惠六个月持有期混合A</t>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1531,12 +663,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1230</t>
+          <t>0.6187</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1549,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009130</t>
+          <t>519652</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
+          <t>银河鑫利灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.02</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0222</t>
+          <t>0.5141</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1587,32 +719,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011017</t>
+          <t>009606</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬景明一年持有期混合</t>
+          <t>长信稳健精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>49.58</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.06</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.0194</t>
+          <t>0.5139</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1625,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009065</t>
+          <t>519616</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
+          <t>银河君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.99</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.2369</t>
+          <t>0.3080</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1663,32 +795,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009266</t>
+          <t>519618</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬景合六个月持有期混合</t>
+          <t>银河君信灵活配置混合I</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0072</t>
+          <t>0.3080</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1701,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004270</t>
+          <t>008416</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富民丰回报混合A</t>
+          <t>鹏扬景瑞三年定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>39.12</t>
+          <t>29.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7041</t>
+          <t>0.2058</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1739,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009131</t>
+          <t>519646</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
+          <t>银河鑫利灵活配置混合 - I</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5540</t>
+          <t>0.1990</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1777,32 +909,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008033</t>
+          <t>009607</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加科盈混合A</t>
+          <t>长信稳健精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25.69</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5033</t>
+          <t>0.1159</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1815,32 +947,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>008417</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>鹏扬景瑞三年定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>29.38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4027</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1853,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>519617</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>银河君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3024</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1891,492 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>519653</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>银河鑫利灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3022</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>920008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中金进取回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>40.18</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3021</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2018</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2014</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009427</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏扬景惠六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.68</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1497</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008034</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中加科盈混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1216</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>920928</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中金进取回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>40.18</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004271</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富民丰回报混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>39.12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23.64</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>23.25</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>25.66</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +1844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3219,32 +1895,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001201</t>
+          <t>009064</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信安鑫回报灵活配置混合A</t>
+          <t>鹏扬景沃六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>65.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>22.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7197</t>
+          <t>6.4458</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3257,17 +1933,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001727</t>
+          <t>009426</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信安鑫回报灵活配置混合C</t>
+          <t>鹏扬景惠六个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>29.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -3277,12 +1953,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6187</t>
+          <t>3.1230</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3295,32 +1971,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519652</t>
+          <t>009130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - A</t>
+          <t>鹏扬景恒六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>23.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5141</t>
+          <t>3.0222</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3333,32 +2009,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009606</t>
+          <t>011017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信稳健精选混合A</t>
+          <t>鹏扬景明一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>49.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5139</t>
+          <t>3.0194</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3371,32 +2047,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519616</t>
+          <t>009065</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河君信灵活配置混合A</t>
+          <t>鹏扬景沃六个月持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>22.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>22.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3080</t>
+          <t>2.2369</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3409,32 +2085,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519618</t>
+          <t>009266</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河君信灵活配置混合I</t>
+          <t>鹏扬景合六个月持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3080</t>
+          <t>1.0072</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3447,32 +2123,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008416</t>
+          <t>004270</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
+          <t>汇添富民丰回报混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>39.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2058</t>
+          <t>0.7041</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3485,32 +2161,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519646</t>
+          <t>009131</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - I</t>
+          <t>鹏扬景恒六个月持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>23.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1990</t>
+          <t>0.5540</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3523,32 +2199,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009607</t>
+          <t>008033</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长信稳健精选混合C</t>
+          <t>中加科盈混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>25.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1159</t>
+          <t>0.5033</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -3561,32 +2237,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008417</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0196</t>
+          <t>0.4027</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -3599,36 +2275,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519617</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银河君信灵活配置混合C</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.3024</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3637,36 +2313,492 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519653</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河鑫利灵活配置混合 - C</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3680,7 +2812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3691,17 +2823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3711,14 +2863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.54</v>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3727,14 +2901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.69</v>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3743,14 +2939,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.81</v>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3759,14 +2977,796 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.96</v>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005178</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰利混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>47.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
